--- a/data/excel_data/ques/valid_ques_zh_MT.xlsx
+++ b/data/excel_data/ques/valid_ques_zh_MT.xlsx
@@ -27,1279 +27,1279 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
-    <t>NER, the city of Tarragona, Spain, to which division does its northwest location belong</t>
+    <t>What is the occupation of the lyricist of the title of NER?</t>
+  </si>
+  <si>
+    <t> What is the predecessor of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Who is the spouse of the person, thing, thing with the same name as the sinking of an Egyptian-British built sloop during the 1948 war</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of NER's election winner?</t>
+  </si>
+  <si>
+    <t> What time zone does the southern city of NER belong to?</t>
+  </si>
+  <si>
+    <t> A town in Sevier County, Utah, United States What is the area of NER, the location in the northwest, and the location in the southwest?</t>
+  </si>
+  <si>
+    <t> 1998 single, who is the successor to the creator who sang NER by Shaquille O'Neal, dj Quick, Lord Tariq and Peter Gunz</t>
+  </si>
+  <si>
+    <t> Which president does the NER's election winner serve?</t>
+  </si>
+  <si>
+    <t> Who leads the countries and regions affected by NER</t>
+  </si>
+  <si>
+    <t> NER, a Bergwalker in Botswana, where is the capital of its province</t>
+  </si>
+  <si>
+    <t> Where does the title of the American statesman NER from Alabama belong to what time zone</t>
+  </si>
+  <si>
+    <t> where is the iconic location of the same name of NER</t>
+  </si>
+  <si>
+    <t> what is the deputy of the title of NER's successor called</t>
+  </si>
+  <si>
+    <t> Which division does the location in the northwest of NER's home ground belong to?</t>
+  </si>
+  <si>
+    <t>What is the religion of the leaders of NER?</t>
+  </si>
+  <si>
+    <t> What is the classification level of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> NER, British politician (born 1967), what party is its leader</t>
+  </si>
+  <si>
+    <t> What is the iconic location of NER's namesake</t>
+  </si>
+  <si>
+    <t> What titles do descendants of NER have</t>
+  </si>
+  <si>
+    <t> What is the classification level of people, things, and things with the same name as the Dratch-class armored frigate NER?</t>
+  </si>
+  <si>
+    <t> What war did NER's namesake take part in?</t>
+  </si>
+  <si>
+    <t> What are the titles of leaders of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What is the country of NER's alma mater?</t>
+  </si>
+  <si>
+    <t> NER, Baron of Ireland, where is his alma mater stationed</t>
+  </si>
+  <si>
+    <t> Who are the descendants of the person or thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> What is the name of the ocean to the northeast of NER's county?</t>
+  </si>
+  <si>
+    <t> NER, British politician (born 1943), what is the predecessor of the current incumbent of his title</t>
+  </si>
+  <si>
+    <t> where is the provincial capital of a person or thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> What time zone does the person or thing with the same name as NER belong to</t>
+  </si>
+  <si>
+    <t>NER, the New York Knicks season in '70, the venue for one season of the National Basketball Association team, the New York Knicks, which division does the location in the northeast belong to?</t>
+  </si>
+  <si>
+    <t> What is the capital (or provincial capital) of the location in the northeast of the region to which NER belongs</t>
+  </si>
+  <si>
+    <t> What is the famous work of the person named NER?</t>
+  </si>
+  <si>
+    <t> Where is the location in the northwest of the football match NER?</t>
+  </si>
+  <si>
+    <t> What is the province of NER's alma mater?</t>
+  </si>
+  <si>
+    <t> NER, an international football competition, where is the successor of the previous generation</t>
+  </si>
+  <si>
+    <t> Where is the graduating school of the lyricist of the title of NER?</t>
+  </si>
+  <si>
+    <t> What are the related products (works) of NER related to</t>
+  </si>
+  <si>
+    <t> What is the classification level of a person or thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> What is the city of the operator of the NER venue?</t>
   </si>
   <si>
     <t> Where did the person named NER live?</t>
   </si>
   <si>
-    <t> What is the classification level of a person or thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> Where is the location in the northwest of the football match NER?</t>
+    <t> NER, a sports season, where is the address of its teams</t>
+  </si>
+  <si>
+    <t> Whose children are the people in NER?</t>
+  </si>
+  <si>
+    <t> What's the deal with the 2017 Super Bowl halftime show NER's sponsor?</t>
+  </si>
+  <si>
+    <t> Where are NER related events held?</t>
+  </si>
+  <si>
+    <t>What is the occupation of the lyricist of the title of 2013 Super Junior album NER?</t>
+  </si>
+  <si>
+    <t> What type of creators are NER</t>
+  </si>
+  <si>
+    <t> Who is the descendant of the person, thing, thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> NER, the former Boy Scouts Board of Utah, USA, what time zone does the location east of its location belong to</t>
+  </si>
+  <si>
+    <t> NER's election winner who's successor</t>
+  </si>
+  <si>
+    <t> What is the label of the country using NER</t>
+  </si>
+  <si>
+    <t> where is the mayor of NER</t>
+  </si>
+  <si>
+    <t> NER, the early dynastic confederation of ancient Egypt (c. 3150 AD), who was its leader's predecessor</t>
+  </si>
+  <si>
+    <t> Who leads the legislature of the region to which the NER belongs in the Highland Region of the South Central United States?</t>
+  </si>
+  <si>
+    <t> NER Northwest location in which area is the southern location in?</t>
+  </si>
+  <si>
+    <t> What do the creators of NER do?</t>
+  </si>
+  <si>
+    <t> Where is the place of death of the person whose name was used to name NER</t>
+  </si>
+  <si>
+    <t> What is the occupation from which the name NER comes from?</t>
+  </si>
+  <si>
+    <t> Where does the location of the northeastern part of the Catholic bishop NER die belong to which division?</t>
+  </si>
+  <si>
+    <t> Which dynasty does the legislature where the NER take place belong to?</t>
+  </si>
+  <si>
+    <t> What do NER election winners do?</t>
+  </si>
+  <si>
+    <t> NER, Tommy Flanagan's album, what is the occupation of its creator</t>
+  </si>
+  <si>
+    <t>What is the zoning of the location in the northwest of the city where NER is located?</t>
+  </si>
+  <si>
+    <t> What is the religion of the descendants of NER?</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia list article, what is the zoning of the location in the southern part of the autonomous region</t>
+  </si>
+  <si>
+    <t> What is the name of the place west of NER's county?</t>
+  </si>
+  <si>
+    <t> What time zone does NER's Northwest location belong to?</t>
+  </si>
+  <si>
+    <t> What is the positioning of the captain of the NER club location</t>
+  </si>
+  <si>
+    <t> What is the title of the descendant of the ruler of NER</t>
+  </si>
+  <si>
+    <t> what is the name of the mother of a person or thing with the same name as NER, a ship</t>
+  </si>
+  <si>
+    <t> Who is the president of NER's alma mater</t>
+  </si>
+  <si>
+    <t> What constituency is NER's sponsor?</t>
+  </si>
+  <si>
+    <t> What products do NER's sponsors have</t>
+  </si>
+  <si>
+    <t> What classification level do people, things and things with the same name as NER belong to?</t>
+  </si>
+  <si>
+    <t> What is the field of people whose names are used to name NER</t>
+  </si>
+  <si>
+    <t> Who is the chairman of the tenant of NER's venue</t>
+  </si>
+  <si>
+    <t> NER, a genus of insects that represents which time zone a location in the west belongs to</t>
+  </si>
+  <si>
+    <t> Who is the general of the person in charge of NER?</t>
+  </si>
+  <si>
+    <t> In NER, a small town in baix Llobregat, Catalonia, Spain, what is the zoning of the place to the northwest of it</t>
+  </si>
+  <si>
+    <t> NER's election winner whose last term was</t>
+  </si>
+  <si>
+    <t>Who is the tenant of the successor of NER's venue?</t>
+  </si>
+  <si>
+    <t> and who was influenced by the NER, a historic french ship, who or things with the same name</t>
+  </si>
+  <si>
+    <t> What is the division of people or things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Which division does the person or thing with the same name as NER belong to?</t>
+  </si>
+  <si>
+    <t> Who is the successor of NER's election winner?</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, to which club the captain of its club location now belongs</t>
+  </si>
+  <si>
+    <t> What are the products of NER's sponsors</t>
+  </si>
+  <si>
+    <t> What are the descendants of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What dynasty did NER's father belong to?</t>
+  </si>
+  <si>
+    <t> Japanese nobleman (1536-1612) who was the successor of NER's father</t>
+  </si>
+  <si>
+    <t> Which party does the parliament hold for the seat held by NER belong to?</t>
+  </si>
+  <si>
+    <t> What is the largest city with people, things and things that have the same name as NER?</t>
+  </si>
+  <si>
+    <t> and NER, a light cruiser, what is the area to which people, things, things with the same name belong</t>
+  </si>
+  <si>
+    <t> What is the language of the lyricist of the title of NER</t>
+  </si>
+  <si>
+    <t> Who are the producers of products related to the smartphone model NER</t>
+  </si>
+  <si>
+    <t> What is the previous generation of NER's election winner?</t>
+  </si>
+  <si>
+    <t>What is the zoning of the largest city in NER, a federal state in Brazil</t>
+  </si>
+  <si>
+    <t> Which division does the administrative center of the birthplace of NER belong to?</t>
+  </si>
+  <si>
+    <t> What is the religion of the administrative area that NER is responsible for?</t>
+  </si>
+  <si>
+    <t> The name of the venue leader in the east of the football match NER is</t>
+  </si>
+  <si>
+    <t> Which league does the operator of NER's venue play for?</t>
+  </si>
+  <si>
+    <t> What time zone does the province of NER belong to?</t>
+  </si>
+  <si>
+    <t> Who is the mother of the next generation of the consort of the queen of ancient Egypt NER's consort?</t>
+  </si>
+  <si>
+    <t> What dynasty belongs to a person or thing with the same name as the passenger ship NER on the Italian route?</t>
+  </si>
+  <si>
+    <t> What are the things related to NER related things</t>
+  </si>
+  <si>
+    <t> NER, the city of Tarragona, Spain, to which division does its northwest location belong</t>
+  </si>
+  <si>
+    <t> Which division does the location in the west of where NER died belong?</t>
   </si>
   <si>
     <t> First Lady of the United States; Wife of the 37th President of the United States NER (1912-1993) Where was the title of successor to Pat Nixon</t>
   </si>
   <si>
-    <t> NER's election winner who's successor</t>
+    <t> What occupation is the source of the NER name?</t>
+  </si>
+  <si>
+    <t> What is the region of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What is the religion of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t>Which club does the captain of the NER club location now belong to?</t>
+  </si>
+  <si>
+    <t> NER, the season of a football team, where is the city of the operator of its venue</t>
+  </si>
+  <si>
+    <t> NER, the tenant of the football team's successor for a season, its venue</t>
+  </si>
+  <si>
+    <t> Who is the successor of the person or thing related to the result of NER</t>
+  </si>
+  <si>
+    <t> What are the titles of the incumbent incumbent of the title of Bangladesh President NER?</t>
+  </si>
+  <si>
+    <t> what is the alma mater of the person whose name is used to name NER</t>
+  </si>
+  <si>
+    <t> Which ethnic group does the previous generation of NER's lyricist belong to?</t>
+  </si>
+  <si>
+    <t> NER's location What division does the location in the west belong to?</t>
+  </si>
+  <si>
+    <t> What are the regions of NER-related events in isolated human groups</t>
+  </si>
+  <si>
+    <t> NER, a state in France, where are its main towns located</t>
+  </si>
+  <si>
+    <t> What is the time zone of the same name of the US Navy Schiphol van der NER</t>
+  </si>
+  <si>
+    <t> where is the place where the person or thing with the same name as NER died</t>
+  </si>
+  <si>
+    <t> Who is the successor of NER's namesake?</t>
+  </si>
+  <si>
+    <t> where is the place where the person whose name was used to name the NER died</t>
+  </si>
+  <si>
+    <t> What is the area of a mountain range in Utah County, Utah, USA, where the location northeast of the city NER is located.</t>
+  </si>
+  <si>
+    <t> What is the name of the leader of NER with the same name?</t>
+  </si>
+  <si>
+    <t>What are the famous works of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Who rented the venue of the NER club</t>
+  </si>
+  <si>
+    <t> Where is the main town of NER in a French state (as of March 2015)</t>
+  </si>
+  <si>
+    <t> What classification level does the person or thing with the same name as NER belong to?</t>
+  </si>
+  <si>
+    <t> Where did NER play and get a job?</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the southeast of NER, a town in Millard County, Utah, USA?</t>
+  </si>
+  <si>
+    <t> NER, a season of football, where is the address of the tenant of its venue</t>
+  </si>
+  <si>
+    <t> What is the division of people, things, and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What is the operator of the venue of NER named?</t>
+  </si>
+  <si>
+    <t> NER, a state in France, where are its main towns located</t>
+  </si>
+  <si>
+    <t> Which institution is the alma mater of American sculptor NER affiliated to?</t>
+  </si>
+  <si>
+    <t> Where do the leaders of the NER take office</t>
+  </si>
+  <si>
+    <t> Which region is the event involved in NER?</t>
+  </si>
+  <si>
+    <t> where NER's election winner takes office</t>
+  </si>
+  <si>
+    <t> Part of what is the person, thing, thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> What is the industry of NER's sponsor?</t>
+  </si>
+  <si>
+    <t> Who is the owner of the successor of NER's venue?</t>
+  </si>
+  <si>
+    <t>What is the type of creator of NER</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, what team is the captain of its club location</t>
+  </si>
+  <si>
+    <t> What party is the legislature of NER's nationality?</t>
+  </si>
+  <si>
+    <t> What is the time zone of the region south of NER, a village in the province of Barcelona and Catalonia, Spain</t>
+  </si>
+  <si>
+    <t> Who is the successor played by the Hong Kong politician NER?</t>
+  </si>
+  <si>
+    <t> Who is the successor of the person, thing, thing with the same name as the ship NER?</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of the incident in which NER is involved?</t>
   </si>
   <si>
     <t> Where did the person, thing, and thing with the same name as NER die?</t>
   </si>
   <si>
+    <t> NER, a municipality in the city of Osona Comaca, Catalonia, Spain, to which time zone its northwest location belongs</t>
+  </si>
+  <si>
+    <t> What are the descendants of NER's generals?</t>
+  </si>
+  <si>
+    <t> What is the famous work of the person named NER?</t>
+  </si>
+  <si>
+    <t> Who are the teams participating in the important events that NER participates in?</t>
+  </si>
+  <si>
+    <t> What is the party of the person, thing, and thing with the same name as the gear-class destroyer NER?</t>
+  </si>
+  <si>
+    <t> Where did the voters for the NER's election winner come from?</t>
+  </si>
+  <si>
+    <t> What is the area of the place in the northwest of NER</t>
+  </si>
+  <si>
+    <t>1915 events of the same name on the Royal Navy's Queen Elizabeth-class battleship NER</t>
+  </si>
+  <si>
+    <t> what is the name of the mother of a person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Who founded the owners of NER club locations?</t>
+  </si>
+  <si>
+    <t> Who is the spouse of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What descendants did the father of the Empress of Japan (680-748) NER have</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of Wallner's election winner?</t>
+  </si>
+  <si>
+    <t> A town in Box Elder County, Utah, U.S.A., the location in the east of NER, the location in the south, and which division does the location belong to?</t>
+  </si>
+  <si>
+    <t> What are the sponsors of the car race NER in Daytona, USA?</t>
+  </si>
+  <si>
+    <t> Who are the descendants of NER-related events?</t>
+  </si>
+  <si>
+    <t> Where does the title of NER's predecessor belong?</t>
+  </si>
+  <si>
+    <t> What are the descendants of NER's namesake?</t>
+  </si>
+  <si>
+    <t> Whose child is the name of NER?</t>
+  </si>
+  <si>
+    <t> What party did the predecessors of the previous generation of the French statesman (1907-2000) NER belong to</t>
+  </si>
+  <si>
+    <t> What zip code is used for people, things and things with the same name as NER</t>
+  </si>
+  <si>
+    <t> What is the time zone for the southern region of NER</t>
+  </si>
+  <si>
+    <t> What was the name of the institution before the participating countries of the war NER?</t>
+  </si>
+  <si>
+    <t>What is the flag event established in the country where NER is located, a civil building in Belfast, Northern Ireland</t>
+  </si>
+  <si>
+    <t> what is the title of the consort of the ruler of NER</t>
+  </si>
+  <si>
+    <t> Which party does the legislature where the NER is held belong to?</t>
+  </si>
+  <si>
+    <t> NER, 1892, who is the successor to the winner of an election held in Japan in 1892</t>
+  </si>
+  <si>
+    <t> In which city is the operator of the venue of NER?</t>
+  </si>
+  <si>
+    <t> What type of school is NER's alma mater?</t>
+  </si>
+  <si>
+    <t> What is the occupation of the successor of the author of NER?</t>
+  </si>
+  <si>
+    <t> In which country is the representative of the venue of NER?</t>
+  </si>
+  <si>
+    <t> NER, a municipality in Catalonia, what is the division of the area to the northwest of it</t>
+  </si>
+  <si>
+    <t> where is the birthplace of the person named NER</t>
+  </si>
+  <si>
+    <t> Who is the publisher of NER's sponsor?</t>
+  </si>
+  <si>
+    <t> Which division does the southern city of NER belong to?</t>
+  </si>
+  <si>
+    <t> Which division does the location in the southwest of NER's city belong to?</t>
+  </si>
+  <si>
+    <t> In which state is the election winner for Wallner?</t>
+  </si>
+  <si>
+    <t> What is the nationality of the origin of the NER name?</t>
+  </si>
+  <si>
+    <t> What is the occupation of the creator of NER</t>
+  </si>
+  <si>
+    <t> where is the person or thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> What titles do Wallner's election winners hold?</t>
+  </si>
+  <si>
+    <t>What are the titles of NER's generals?</t>
+  </si>
+  <si>
+    <t> NER, a football team's season, what is the name of the chairman of the tenant of its venue</t>
+  </si>
+  <si>
+    <t> where is the birthplace of NER's election winner</t>
+  </si>
+  <si>
+    <t> Which division does the administrative center of NER's location belong to?</t>
+  </si>
+  <si>
+    <t> Which team does the captain of the NER club location play for?</t>
+  </si>
+  <si>
+    <t> what is the alma mater of NER's election winner</t>
+  </si>
+  <si>
+    <t> NER, a state in France, which district does its main town belong to</t>
+  </si>
+  <si>
+    <t> In which city is NER's alma mater?</t>
+  </si>
+  <si>
+    <t> What time zone is the location in the southeast of where the NER takes place?</t>
+  </si>
+  <si>
+    <t> and NER, an Arleigh Burke-class guided-missile destroyer, what is the war in which a person or thing with the same name participated</t>
+  </si>
+  <si>
+    <t> What is the address of the operator of the venue where NER is held?</t>
+  </si>
+  <si>
     <t> Who is the manager of the operator of NER's venue?</t>
   </si>
   <si>
-    <t> Who are NER's parents' successors?</t>
-  </si>
-  <si>
-    <t> What dynasty belongs to a person or thing with the same name as the passenger ship NER on the Italian route?</t>
-  </si>
-  <si>
-    <t> Which president does the NER's election winner serve?</t>
+    <t> The field the person whose name is used to name the NER belongs to</t>
+  </si>
+  <si>
+    <t> Who is the mother of the successor of the descendant of the Prince of Denmark (born 1969) NER</t>
+  </si>
+  <si>
+    <t> What instruments did the creators of NER use</t>
+  </si>
+  <si>
+    <t> where is the birthplace of the person named NER</t>
+  </si>
+  <si>
+    <t> What type of subject is NER</t>
+  </si>
+  <si>
+    <t> Who was influenced by the person whose name was used to name NER?</t>
+  </si>
+  <si>
+    <t>What city is the alma mater of American basketball coach NER?</t>
+  </si>
+  <si>
+    <t> Where is the southern region of NER?</t>
+  </si>
+  <si>
+    <t> Wikimedia listing article Which team does the captain of the NER club location play for?</t>
+  </si>
+  <si>
+    <t> NER, a season for a football team, what the operator of its venue is named for</t>
+  </si>
+  <si>
+    <t> What are the affiliations of NER's alma mater</t>
+  </si>
+  <si>
+    <t> what team is the captain of the NER club location</t>
+  </si>
+  <si>
+    <t> What time zone is the location south of NER in?</t>
+  </si>
+  <si>
+    <t> What region does NER's province belong to in the country?</t>
+  </si>
+  <si>
+    <t> Where is the operator of the venue of NER?</t>
+  </si>
+  <si>
+    <t> What type of company is NER's sponsor?</t>
+  </si>
+  <si>
+    <t> What are the iconic places for people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Who is the first predecessor of the title of NER?</t>
+  </si>
+  <si>
+    <t> What time zone is used in the southern cities of NER</t>
+  </si>
+  <si>
+    <t> NER, a season of a football team, where is the city of the operator of its venue</t>
+  </si>
+  <si>
+    <t> Where was the birthplace of the founder of the team of Finnish racing driver NER</t>
+  </si>
+  <si>
+    <t> In which region the person whose name is used to name the NER is</t>
+  </si>
+  <si>
+    <t> A town in Sampitt County, Utah, USA, what is the area of NER, the location in the south, and the location in the northwest?</t>
+  </si>
+  <si>
+    <t>What are the descendants of NER's principals?</t>
+  </si>
+  <si>
+    <t> What is the fame of the person whose name was used to name NER?</t>
+  </si>
+  <si>
+    <t> NER's location What area is the northern city in?</t>
+  </si>
+  <si>
+    <t> what NER's successor club location is named for</t>
+  </si>
+  <si>
+    <t> What is the classification level of the same name for NER</t>
+  </si>
+  <si>
+    <t> What is the name of the alma mater of the person named NER?</t>
+  </si>
+  <si>
+    <t> With NER, a French ship, it has the same name of people, things, things belong to which division</t>
+  </si>
+  <si>
+    <t> Who is the last person to run the NER position for the American college football team?</t>
+  </si>
+  <si>
+    <t> NER, a Chinese politician (1886-1975) who was the chairman he played</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of the leader of NER?</t>
+  </si>
+  <si>
+    <t> Who created the products or works related to NER</t>
+  </si>
+  <si>
+    <t> What classification level does the same name of NER belong to?</t>
+  </si>
+  <si>
+    <t> What is the flag event established in the country where NER is located?</t>
+  </si>
+  <si>
+    <t> Which dynasty does NER's father belong to?</t>
+  </si>
+  <si>
+    <t> What is the time zone of the southern city of NER</t>
+  </si>
+  <si>
+    <t> What titles do NER's election winners hold?</t>
+  </si>
+  <si>
+    <t> NER, U.S. citizen residing outside the U.S., to which party the legislature of the region to which they belong</t>
+  </si>
+  <si>
+    <t> What are the descendants of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t>NER, the season of a football team, which country its position represents</t>
+  </si>
+  <si>
+    <t> Who is the candidate for the title of NER now?</t>
+  </si>
+  <si>
+    <t> What titles do children of NER have?</t>
+  </si>
+  <si>
+    <t> Where are the events included in the NER held?</t>
+  </si>
+  <si>
+    <t> NER's events speak the common language</t>
+  </si>
+  <si>
+    <t> to whom the person or thing with the same name as NER owes allegiance</t>
+  </si>
+  <si>
+    <t> what is NER's eponymous legislature</t>
+  </si>
+  <si>
+    <t> Which club does the captain of NER's successor belong to now?</t>
+  </si>
+  <si>
+    <t> NER, the American college basketball season, what is the region of its home west location</t>
+  </si>
+  <si>
+    <t> NER, a season of a football team, what is the time zone of the location in the southwest of its location</t>
+  </si>
+  <si>
+    <t> Wikimedia lists the location of the article NER Which division does the location in the southwest belong to</t>
+  </si>
+  <si>
+    <t> What is the time zone of a person or thing with the same name as NER</t>
+  </si>
+  <si>
+    <t> NER, a French "Chakar" class battleship, what classification does the same name belong to?</t>
+  </si>
+  <si>
+    <t> NER's location What is the title of the location leader in the North West?</t>
+  </si>
+  <si>
+    <t> Where is the birthplace of the person or thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> Which party does NER's namesake belong to?</t>
+  </si>
+  <si>
+    <t> Where is NER's Northwest location based?</t>
+  </si>
+  <si>
+    <t>Who is the next father of the descendants of NER?</t>
+  </si>
+  <si>
+    <t> What is the reason for the person, thing, and thing with the same name as Bakuden Porcelain NER?</t>
+  </si>
+  <si>
+    <t> Who is NER's father's spouse</t>
+  </si>
+  <si>
+    <t> Where did NER play work?</t>
+  </si>
+  <si>
+    <t> Where was the last NER-related match of the UEFA Euro 2000 held?</t>
+  </si>
+  <si>
+    <t> NER, this is a song sung by Carlos Santana, it is what instrument the creator used</t>
+  </si>
+  <si>
+    <t> What is the job title of NER's birth country leader?</t>
+  </si>
+  <si>
+    <t> NER, a Chinese politician (1913-2010) who is the current incumbent of the nominee for his title</t>
+  </si>
+  <si>
+    <t> Who is the operator of NER's famous work?</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of the previous generation where NER was held?</t>
+  </si>
+  <si>
+    <t> What is the level of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> NER, a 2nd century Roman senator, consul and governor, where did his predecessor of the previous generation die</t>
+  </si>
+  <si>
+    <t> NER, Bismarck-class battleship, what is the award for its namesake</t>
+  </si>
+  <si>
+    <t> What language do singers who perform for NER use</t>
+  </si>
+  <si>
+    <t> NER, the American college basketball season, whose home legislature is led</t>
+  </si>
+  <si>
+    <t>What war did the person or thing with the same name as NER participate in?</t>
+  </si>
+  <si>
+    <t> Where is the location in the southeast of NER and in which region is the location in the southwest?</t>
+  </si>
+  <si>
+    <t> NER's location Northwest location leader's name is</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the south of the city where the Wikimedia list article NER is located</t>
+  </si>
+  <si>
+    <t> What is the provincial capital of the location in the southwest of the birthplace of NER?</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the north of NER's home field during the American college basketball season?</t>
+  </si>
+  <si>
+    <t> Where is the birthplace of people, things and things with the same name as NER?</t>
+  </si>
+  <si>
+    <t> NER's candidate alias who's successor</t>
+  </si>
+  <si>
+    <t> What religion do NER's parents belong to?</t>
   </si>
   <si>
     <t> Who is the most important team owner of the Finnish racing driver NER?</t>
   </si>
   <si>
-    <t> Who is the successor of NER's election winner?</t>
-  </si>
-  <si>
-    <t> Where is the graduating school of the lyricist of the title of NER?</t>
+    <t> Who is NER's father (mother)?</t>
+  </si>
+  <si>
+    <t> Where is the place where the person, thing, and thing with the same name as the schooner and the Spanish training ship NER died?</t>
+  </si>
+  <si>
+    <t> What is the occupation of the founder of NER's team?</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, where is the birth city of the captain of his club location</t>
+  </si>
+  <si>
+    <t> What is the division of the southern city of NER?</t>
+  </si>
+  <si>
+    <t> Which division does a person, thing, or thing with the same name as NER belong to?</t>
+  </si>
+  <si>
+    <t>What time zone is used for the location in the south of the city where the Wikimedia list article NER is located</t>
+  </si>
+  <si>
+    <t> NER, WWE's 2012 Night of Champions pay-per-view, who is its sponsor starring</t>
+  </si>
+  <si>
+    <t> What is the national team of the captain of the NER club location?</t>
+  </si>
+  <si>
+    <t> What is the award for the election winner of Minnesota's Election NER?</t>
+  </si>
+  <si>
+    <t> What does a lyricist with the title of NER do?</t>
+  </si>
+  <si>
+    <t> What is the religion of NER's election winner?</t>
+  </si>
+  <si>
+    <t> What does NER related things have to do with</t>
+  </si>
+  <si>
+    <t> who is the emperor of the country that uses NER</t>
+  </si>
+  <si>
+    <t> who led NER's events</t>
+  </si>
+  <si>
+    <t> What are the awards for people or things with the same name as the Arleigh Burke-class destroyer, the battleship NER of this class</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, what is the region of the location northwest of the city where it belongs</t>
+  </si>
+  <si>
+    <t> Who is the descendant of NER?</t>
+  </si>
+  <si>
+    <t> Which religion does the country that uses NER, a language of the ancient Korean Baekje Kingdom, follow?</t>
+  </si>
+  <si>
+    <t> NER, a season for a football team, what is the positioning of its coach</t>
+  </si>
+  <si>
+    <t> What is the zoning of the place in the northwest of NER, a municipality in Spain</t>
+  </si>
+  <si>
+    <t>What is the predecessor of the operator of the position of the NER of the American college football team?</t>
+  </si>
+  <si>
+    <t> What is the religion of NER's candidate graduate school?</t>
+  </si>
+  <si>
+    <t> In a French state (as of March 2015) which district is the main town of NER</t>
+  </si>
+  <si>
+    <t> Who is the successor of NER's namesake?</t>
+  </si>
+  <si>
+    <t> NER, a football team's season, its location, what are the titles of location leaders in the Northwest</t>
+  </si>
+  <si>
+    <t> What is the type of artist who sings NER songs</t>
+  </si>
+  <si>
+    <t> Which religion does NER's name belong to?</t>
+  </si>
+  <si>
+    <t> What is the area of the northwest location of NER, a municipality in Catalonia, Spain</t>
+  </si>
+  <si>
+    <t> The location in the south of NER and the location in the east belong to which division</t>
+  </si>
+  <si>
+    <t> Who is the father of the person, thing, thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What is the occupation of the person whose name is used to name the NER?</t>
+  </si>
+  <si>
+    <t> What is the occupation of the singer who participated in Jolin Tsai's 2006 song NER</t>
+  </si>
+  <si>
+    <t> What war did the first person with the title of NER fight in?</t>
+  </si>
+  <si>
+    <t> NER, the season of a football team, in which league the operator of its venue plays</t>
+  </si>
+  <si>
+    <t> Who is the next generation of the title of NER?</t>
+  </si>
+  <si>
+    <t> NER, Anwar, who is the successor to the 2006 election winner</t>
+  </si>
+  <si>
+    <t>Who are NER's parents' successors?</t>
+  </si>
+  <si>
+    <t> Where was the person or thing with the same name as NER born</t>
+  </si>
+  <si>
+    <t> NER, a Phileasx, who is the author of its themes</t>
+  </si>
+  <si>
+    <t> With NER, a ship, what classification class does it have the same name people, things, things belong to</t>
+  </si>
+  <si>
+    <t> NER, a season for a football team, what are the titles of location leaders in its location Northwest</t>
+  </si>
+  <si>
+    <t> What is the zoning of the southern region of NER, a municipality in Catalonia, Spain</t>
+  </si>
+  <si>
+    <t> What time zone is used for the administrative center of the parent of NER, a mountain range in southeastern Poland</t>
+  </si>
+  <si>
+    <t> Jolin Tsai's 2006 song NER song, what is the occupation of the singer</t>
+  </si>
+  <si>
+    <t> Where do NER candidates' predecessors take office?</t>
+  </si>
+  <si>
+    <t> Where are the events included in the NER held?</t>
+  </si>
+  <si>
+    <t> NER's location What area is the northern location in?</t>
+  </si>
+  <si>
+    <t> Who is the leader of NER's successor?</t>
+  </si>
+  <si>
+    <t> where is the person who was used to name the lake ner on titan</t>
+  </si>
+  <si>
+    <t> NER, a municipality in Spain, to which time zone does the southern region belong</t>
+  </si>
+  <si>
+    <t> What is a related product (work) related to NER</t>
+  </si>
+  <si>
+    <t> Who is the successor of the namesake of the Hamburg escort NER?</t>
+  </si>
+  <si>
+    <t>What are the offspring of NER's parents</t>
+  </si>
+  <si>
+    <t> What is the name of the alma mater of the leader of NER?</t>
+  </si>
+  <si>
+    <t> What event determined the establishment of the venue for the NER national team</t>
+  </si>
+  <si>
+    <t> What is the region of the same name of NER?</t>
+  </si>
+  <si>
+    <t> Where does the title of NER belong to which time zone</t>
+  </si>
+  <si>
+    <t> In which area is the southern location of the NER held?</t>
+  </si>
+  <si>
+    <t> A city and county seat in Millard County, Utah, United States, a location in the southeast of NER, a location in the north, and what time zone is used for a location in the north</t>
+  </si>
+  <si>
+    <t> Who is the predecessor of the person, thing, thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> What is the type of person whose name is in the Wikimedia listing article NER</t>
+  </si>
+  <si>
+    <t> Which religion do the leaders of NER believe in?</t>
+  </si>
+  <si>
+    <t> What is the title of the location leader in the south of the location of NER?</t>
+  </si>
+  <si>
+    <t> where is the state of the NER election winner</t>
+  </si>
+  <si>
+    <t> Who are the teams participating in the important competitions that NER participates in in a season of the football team?</t>
+  </si>
+  <si>
+    <t> where is the mayor of NER</t>
+  </si>
+  <si>
+    <t> Where did the person or thing with the same name as NER die?</t>
+  </si>
+  <si>
+    <t> What offspring did the mother of the consort of King NER of Egypt have?</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the west of where NER died?</t>
+  </si>
+  <si>
+    <t> Who are the leaders of NER</t>
+  </si>
+  <si>
+    <t>where was the birthplace of the person whose name was used to name the NER</t>
+  </si>
+  <si>
+    <t> With which countries the people, things and things with the same name in NER participated in the war</t>
+  </si>
+  <si>
+    <t> What is the country of the singer of the language NER song of a geographic region?</t>
+  </si>
+  <si>
+    <t> Where is the location in the east of the NER and which region is the location in the northwest?</t>
+  </si>
+  <si>
+    <t> what is the title of NER's election winner</t>
+  </si>
+  <si>
+    <t> What party is the NER's election winner?</t>
+  </si>
+  <si>
+    <t> The location of the football team for a season NER is in which time zone does the northern city belong?</t>
+  </si>
+  <si>
+    <t> What's the deal with NER's sponsors?</t>
+  </si>
+  <si>
+    <t> Who is the successor of the person or thing related to the result of the battle NER?</t>
+  </si>
+  <si>
+    <t> What language did the previous generation of NER's lyricists speak in?</t>
+  </si>
+  <si>
+    <t> In which area is the northwest location of NER, a village in the province of Girona, Catalonia, Spain</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, what is the national team the captain of its club location belongs to</t>
+  </si>
+  <si>
+    <t> Wikimedia lists the location of the article NER What region does the location in the east belong to?</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the southeast of NER's home field?</t>
+  </si>
+  <si>
+    <t> What is the area of the location south of NER?</t>
+  </si>
+  <si>
+    <t>What is the religion of the people, things, things that have the same name as NER, a French destroyer</t>
+  </si>
+  <si>
+    <t> Which manager leads the tenants of NER's venue</t>
+  </si>
+  <si>
+    <t> What is the war in which people, things, and things with the same name as NER participated?</t>
+  </si>
+  <si>
+    <t> What is the predecessor of NER's election winner?</t>
+  </si>
+  <si>
+    <t> NER, the American college basketball season, which division is the southern part of its home field?</t>
+  </si>
+  <si>
+    <t> Who is the mother of the previous generation of the descendants of NER?</t>
+  </si>
+  <si>
+    <t> What is the name of the leader of the eastern location of a sports game NER?</t>
+  </si>
+  <si>
+    <t> what is NER's title of the same name</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, what is the positioning of the captain of its club location</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia listing article, which team the captain of their club location plays for</t>
+  </si>
+  <si>
+    <t> what is the profession of the singer who performed for omarion's album NER</t>
+  </si>
+  <si>
+    <t> NER's location What time zone does the location in the northeast belong to?</t>
+  </si>
+  <si>
+    <t> What zip code is the same name for NER?</t>
+  </si>
+  <si>
+    <t> what is the title of the leader of NER</t>
+  </si>
+  <si>
+    <t> The names of leaders of people, things and things with the same name as NER are</t>
+  </si>
+  <si>
+    <t> Where is the provincial capital of the same name of NER?</t>
+  </si>
+  <si>
+    <t>What area does the administrative center of the birthplace of NER belong to?</t>
+  </si>
+  <si>
+    <t> What clubs did NER's coaches join?</t>
+  </si>
+  <si>
+    <t> 1998 single, what's the draft team of the creators of NER featuring Shaquille O'Neal, dj Quick, Lord Tariq and Peter Gunz</t>
+  </si>
+  <si>
+    <t> NER, a sports channel, what are the products of its sponsors</t>
+  </si>
+  <si>
+    <t> What is the origin of NER's namesake</t>
+  </si>
+  <si>
+    <t> Who founded the record company NER belongs to?</t>
+  </si>
+  <si>
+    <t> What is the religion of NER's spouse's spouse</t>
+  </si>
+  <si>
+    <t> What is the legislature for the position of NER's national team?</t>
+  </si>
+  <si>
+    <t> what is the northwest where the national team of the ukrainian football player NER is hosted</t>
+  </si>
+  <si>
+    <t> What does the namesake of NER have to do with</t>
+  </si>
+  <si>
+    <t> Who is NER's father's successor?</t>
+  </si>
+  <si>
+    <t> What is the administrative district of the person, thing, and thing with the same name as NER?</t>
+  </si>
+  <si>
+    <t> NER, an intercollegiate basketball season, what is the division of its home field?</t>
+  </si>
+  <si>
+    <t> Who is the successor of NER's general</t>
+  </si>
+  <si>
+    <t> Who is the successor of the previous generation of the successor of NER?</t>
+  </si>
+  <si>
+    <t> Which institution is NER's alma mater affiliated to?</t>
+  </si>
+  <si>
+    <t> who is the prime minister of the leader of NER</t>
+  </si>
+  <si>
+    <t>What country was the captain of the NER club location born in?</t>
+  </si>
+  <si>
+    <t> NER, Wikimedia list article, what is the region of the location east of the city where it belongs</t>
+  </si>
+  <si>
+    <t> Who is the king of NER's election winner</t>
+  </si>
+  <si>
+    <t> Which dynasty did the descendants of NER belong to?</t>
+  </si>
+  <si>
+    <t> What titles do NER's candidate successors hold?</t>
+  </si>
+  <si>
+    <t> What area is the NER's home east?</t>
+  </si>
+  <si>
+    <t> What is the previous generation of the operator of NER's successor</t>
   </si>
   <si>
     <t> A city in Emory County, Utah, United States, located in the southwest of NER, the location in the west, which time zone the location belongs to</t>
   </si>
   <si>
-    <t>NER, an international football competition, what is the zoning of the location in the west of its location</t>
-  </si>
-  <si>
-    <t> NER, a Chinese politician (1913-2010) who is the current incumbent of the nominee for his title</t>
-  </si>
-  <si>
-    <t> What are the affiliations of NER's alma mater</t>
-  </si>
-  <si>
-    <t> The location in the south of NER and the location in the east belong to which division</t>
-  </si>
-  <si>
-    <t> NER, an international football competition, where is the successor of the previous generation</t>
-  </si>
-  <si>
-    <t> What is the type of person whose name is in the Wikimedia listing article NER</t>
-  </si>
-  <si>
-    <t> and NER, a light cruiser, what is the area to which people, things, things with the same name belong</t>
-  </si>
-  <si>
-    <t> what team is the captain of the NER club location</t>
-  </si>
-  <si>
-    <t> Where is the operator of the venue of NER?</t>
-  </si>
-  <si>
-    <t> NER, a state in France, where are its main towns located</t>
-  </si>
-  <si>
-    <t> Who is the predecessor of Wallner's election winner?</t>
-  </si>
-  <si>
-    <t> Where is the birthplace of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What is the occupation of the creator of NER</t>
-  </si>
-  <si>
-    <t> What is the name of the ocean to the northeast of NER's county?</t>
-  </si>
-  <si>
-    <t> Who is the predecessor of NER's election winner?</t>
-  </si>
-  <si>
-    <t> NER Northwest location in which area is the southern location in?</t>
-  </si>
-  <si>
-    <t>Where did NER play and get a job?</t>
-  </si>
-  <si>
-    <t> what is the title of NER's election winner</t>
-  </si>
-  <si>
-    <t> NER, the former Boy Scouts Board of Utah, USA, what time zone does the location east of its location belong to</t>
-  </si>
-  <si>
-    <t> Who is NER's father (mother)?</t>
-  </si>
-  <si>
-    <t> Where is the birthplace of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What titles do descendants of NER have</t>
-  </si>
-  <si>
-    <t> The names of leaders of people, things and things with the same name as NER are</t>
-  </si>
-  <si>
-    <t> Who is the general of the person in charge of NER?</t>
-  </si>
-  <si>
-    <t> What is the industry of NER's sponsor?</t>
-  </si>
-  <si>
-    <t> Where are NER related events held?</t>
-  </si>
-  <si>
-    <t> Who is the spouse of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What do the creators of NER do?</t>
-  </si>
-  <si>
-    <t> where was the birthplace of the person whose name was used to name the NER</t>
-  </si>
-  <si>
-    <t> A city and county seat in Millard County, Utah, United States, a location in the southeast of NER, a location in the north, and what time zone is used for a location in the north</t>
-  </si>
-  <si>
-    <t> Where is the main town of NER in a French state (as of March 2015)</t>
-  </si>
-  <si>
-    <t> What is the religion of NER's election winner?</t>
-  </si>
-  <si>
-    <t> What is the occupation of the lyricist of the title of 2013 Super Junior album NER?</t>
-  </si>
-  <si>
-    <t>What is the area of the northwest location of NER, a municipality in Catalonia, Spain</t>
-  </si>
-  <si>
-    <t> Which league does the operator of NER's venue play for?</t>
-  </si>
-  <si>
-    <t> What is the country of the singer of the language NER song of a geographic region?</t>
-  </si>
-  <si>
-    <t> NER's candidate alias who's successor</t>
-  </si>
-  <si>
-    <t> What are the awards for people or things with the same name as the Arleigh Burke-class destroyer, the battleship NER of this class</t>
-  </si>
-  <si>
-    <t> Who is the predecessor of the person, thing, thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What is the religion of NER's candidate graduate school?</t>
-  </si>
-  <si>
-    <t> What time zone is the location south of NER in?</t>
-  </si>
-  <si>
-    <t> where is the birthplace of the person named NER</t>
-  </si>
-  <si>
-    <t> What is the classification level of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the southeast of NER's home field?</t>
+    <t> Whose name is NER's predecessor?</t>
+  </si>
+  <si>
+    <t> Which countries are the sources of the names of the cities that participate in the NER of the Wikimedia list article</t>
+  </si>
+  <si>
+    <t> and NER, a historic French vessel, who has been influenced by the person or thing with the same name</t>
   </si>
   <si>
     <t> Which series does the sponsor of the 2003 World Wrestling Entertainment pay-to-view event NER belong to?</t>
   </si>
   <si>
-    <t> What are the descendants of NER's principals?</t>
-  </si>
-  <si>
-    <t> who is the emperor of the country that uses NER</t>
-  </si>
-  <si>
-    <t> What classification level does the person or thing with the same name as NER belong to?</t>
-  </si>
-  <si>
-    <t>NER, a municipality in the city of Osona Comaca, Catalonia, Spain, to which time zone its northwest location belongs</t>
-  </si>
-  <si>
-    <t> What's the deal with the 2017 Super Bowl halftime show NER's sponsor?</t>
-  </si>
-  <si>
-    <t> What are the descendants of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What do NER election winners do?</t>
-  </si>
-  <si>
-    <t> In which country is the representative of the venue of NER?</t>
-  </si>
-  <si>
-    <t> NER, a season for a football team, what is the positioning of its coach</t>
-  </si>
-  <si>
-    <t> Where was the person or thing with the same name as NER born</t>
-  </si>
-  <si>
-    <t> Where does the title of NER belong to which time zone</t>
-  </si>
-  <si>
-    <t> NER, the early dynastic confederation of ancient Egypt (c. 3150 AD), who was its leader's predecessor</t>
-  </si>
-  <si>
-    <t> What zip code is used for people, things and things with the same name as NER</t>
-  </si>
-  <si>
-    <t> The location of the football team for a season NER is in which time zone does the northern city belong?</t>
-  </si>
-  <si>
-    <t> Which countries are the sources of the names of the cities that participate in the NER of the Wikimedia list article</t>
-  </si>
-  <si>
-    <t> What is the division of the southern city of NER?</t>
-  </si>
-  <si>
-    <t> What is the religion of the descendants of NER?</t>
-  </si>
-  <si>
-    <t>1998 single, what's the draft team of the creators of NER featuring Shaquille O'Neal, dj Quick, Lord Tariq and Peter Gunz</t>
-  </si>
-  <si>
-    <t> What is the occupation of the successor of the author of NER?</t>
-  </si>
-  <si>
-    <t> Where was the last NER-related match of the UEFA Euro 2000 held?</t>
-  </si>
-  <si>
-    <t> Where do the leaders of the NER take office</t>
-  </si>
-  <si>
-    <t> What is the country of NER's alma mater?</t>
-  </si>
-  <si>
-    <t> In which city is the operator of the venue of NER?</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, which team the captain of their club location plays for</t>
-  </si>
-  <si>
-    <t> A town in Sevier County, Utah, United States What is the area of NER, the location in the northwest, and the location in the southwest?</t>
-  </si>
-  <si>
-    <t> What classification level do people, things and things with the same name as NER belong to?</t>
+    <t> Which general leads NER-related events</t>
+  </si>
+  <si>
+    <t> where was NER's father's birthplace</t>
+  </si>
+  <si>
+    <t> What is the zoning of the location in the northeast of NER?</t>
+  </si>
+  <si>
+    <t> NER, an international football competition, what is the zoning of the location in the west of its location</t>
+  </si>
+  <si>
+    <t>Where does the source of the NER name belong?</t>
+  </si>
+  <si>
+    <t> Who is the successor of the successor of the place where NER is held?</t>
   </si>
   <si>
     <t> Which party does the legislature in the birthplace of NER belong to?</t>
-  </si>
-  <si>
-    <t> What is the type of artist who sings NER songs</t>
-  </si>
-  <si>
-    <t> Where did NER play work?</t>
-  </si>
-  <si>
-    <t> Who is the publisher of NER's sponsor?</t>
-  </si>
-  <si>
-    <t> Who are the descendants of the person or thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> What is the name of the alma mater of the person named NER?</t>
-  </si>
-  <si>
-    <t>1998 single, who is the successor to the creator who sang NER by Shaquille O'Neal, dj Quick, Lord Tariq and Peter Gunz</t>
-  </si>
-  <si>
-    <t> What is the operator of the venue of NER named?</t>
-  </si>
-  <si>
-    <t> NER, a season of a football team, what is the time zone of the location in the southwest of its location</t>
-  </si>
-  <si>
-    <t> Who is the predecessor of the incident in which NER is involved?</t>
-  </si>
-  <si>
-    <t> What is the time zone for the southern region of NER</t>
-  </si>
-  <si>
-    <t> NER's location Northwest location leader's name is</t>
-  </si>
-  <si>
-    <t> what is the profession of the singer who performed for omarion's album NER</t>
-  </si>
-  <si>
-    <t> What type of company is NER's sponsor?</t>
-  </si>
-  <si>
-    <t> NER's election winner whose last term was</t>
-  </si>
-  <si>
-    <t> Which dynasty does the legislature where the NER take place belong to?</t>
-  </si>
-  <si>
-    <t> what is the name of the mother of a person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> With NER, a French ship, it has the same name of people, things, things belong to which division</t>
-  </si>
-  <si>
-    <t> Where are the events included in the NER held?</t>
-  </si>
-  <si>
-    <t> Where are the events included in the NER held?</t>
-  </si>
-  <si>
-    <t> Who is the successor of the namesake of the Hamburg escort NER?</t>
-  </si>
-  <si>
-    <t> Who is the mother of the successor of the descendant of the Prince of Denmark (born 1969) NER</t>
-  </si>
-  <si>
-    <t>where was NER's father's birthplace</t>
-  </si>
-  <si>
-    <t> What is the address of the operator of the venue where NER is held?</t>
-  </si>
-  <si>
-    <t> NER, a football team's season, what is the name of the chairman of the tenant of its venue</t>
-  </si>
-  <si>
-    <t> Who founded the owners of NER club locations?</t>
-  </si>
-  <si>
-    <t> What is the name of the place west of NER's county?</t>
-  </si>
-  <si>
-    <t> and who was influenced by the NER, a historic french ship, who or things with the same name</t>
-  </si>
-  <si>
-    <t> What is the city of the operator of the NER venue?</t>
-  </si>
-  <si>
-    <t> Which religion does NER's name belong to?</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, what is the positioning of the captain of its club location</t>
-  </si>
-  <si>
-    <t> What classification level does the same name of NER belong to?</t>
-  </si>
-  <si>
-    <t> Who is the spouse of the person, thing, thing with the same name as the sinking of an Egyptian-British built sloop during the 1948 war</t>
-  </si>
-  <si>
-    <t> Whose child is the name of NER?</t>
-  </si>
-  <si>
-    <t> Who is the next father of the descendants of NER?</t>
-  </si>
-  <si>
-    <t> What is the type of creator of NER</t>
-  </si>
-  <si>
-    <t> What is the predecessor of the operator of the position of the NER of the American college football team?</t>
-  </si>
-  <si>
-    <t> The field the person whose name is used to name the NER belongs to</t>
-  </si>
-  <si>
-    <t> Which party does the legislature where the NER is held belong to?</t>
-  </si>
-  <si>
-    <t>Who is the next generation of the title of NER?</t>
-  </si>
-  <si>
-    <t> what is NER's eponymous legislature</t>
-  </si>
-  <si>
-    <t> What are the titles of the incumbent incumbent of the title of Bangladesh President NER?</t>
-  </si>
-  <si>
-    <t> What time zone does NER's Northwest location belong to?</t>
-  </si>
-  <si>
-    <t> What is the time zone of a person or thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> What time zone is used for the administrative center of the parent of NER, a mountain range in southeastern Poland</t>
-  </si>
-  <si>
-    <t> What is the capital (or provincial capital) of the location in the northeast of the region to which NER belongs</t>
-  </si>
-  <si>
-    <t> where is the mayor of NER</t>
-  </si>
-  <si>
-    <t> What is the name of the leader of NER with the same name?</t>
-  </si>
-  <si>
-    <t> Which institution is the alma mater of American sculptor NER affiliated to?</t>
-  </si>
-  <si>
-    <t> Who is the successor of NER's general</t>
-  </si>
-  <si>
-    <t> What are the descendants of NER's namesake?</t>
-  </si>
-  <si>
-    <t> What city is the alma mater of American basketball coach NER?</t>
-  </si>
-  <si>
-    <t> NER, 1892, who is the successor to the winner of an election held in Japan in 1892</t>
-  </si>
-  <si>
-    <t> What constituency is NER's sponsor?</t>
-  </si>
-  <si>
-    <t> What are the titles of leaders of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> Who is the successor of the person, thing, thing with the same name as the ship NER?</t>
-  </si>
-  <si>
-    <t>NER, a sports channel, what are the products of its sponsors</t>
-  </si>
-  <si>
-    <t> What is the flag event established in the country where NER is located?</t>
-  </si>
-  <si>
-    <t> What is the occupation of the person whose name is used to name the NER?</t>
-  </si>
-  <si>
-    <t> What is the occupation of the founder of NER's team?</t>
-  </si>
-  <si>
-    <t> NER's location What is the title of the location leader in the North West?</t>
-  </si>
-  <si>
-    <t> What is the religion of NER's spouse's spouse</t>
-  </si>
-  <si>
-    <t> Whose children are the people in NER?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the west of where NER died?</t>
-  </si>
-  <si>
-    <t> What type of subject is NER</t>
-  </si>
-  <si>
-    <t> NER, Bismarck-class battleship, what is the award for its namesake</t>
-  </si>
-  <si>
-    <t> what NER's successor club location is named for</t>
-  </si>
-  <si>
-    <t> Where is the place of death of the person whose name was used to name NER</t>
-  </si>
-  <si>
-    <t> Part of what is the person, thing, thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> Which team does the captain of the NER club location play for?</t>
-  </si>
-  <si>
-    <t> Which club does the captain of the NER club location now belong to?</t>
-  </si>
-  <si>
-    <t> Which institution is NER's alma mater affiliated to?</t>
-  </si>
-  <si>
-    <t> who led NER's events</t>
-  </si>
-  <si>
-    <t> Who leads the countries and regions affected by NER</t>
-  </si>
-  <si>
-    <t>NER, Baron of Ireland, where is his alma mater stationed</t>
-  </si>
-  <si>
-    <t> What time zone does the southern city of NER belong to?</t>
-  </si>
-  <si>
-    <t> What is the occupation from which the name NER comes from?</t>
-  </si>
-  <si>
-    <t> What is the region of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What are the products of NER's sponsors</t>
-  </si>
-  <si>
-    <t> What is the previous generation of NER's election winner?</t>
-  </si>
-  <si>
-    <t> What is the provincial capital of the location in the southwest of the birthplace of NER?</t>
-  </si>
-  <si>
-    <t> What clubs did NER's coaches join?</t>
-  </si>
-  <si>
-    <t> NER, a state in France, which district does its main town belong to</t>
-  </si>
-  <si>
-    <t> Which ethnic group does the previous generation of NER's lyricist belong to?</t>
-  </si>
-  <si>
-    <t> What is the field of people whose names are used to name NER</t>
-  </si>
-  <si>
-    <t> What is the religion of the leaders of NER?</t>
-  </si>
-  <si>
-    <t> What is the positioning of the captain of the NER club location</t>
-  </si>
-  <si>
-    <t> Which division does the southern city of NER belong to?</t>
-  </si>
-  <si>
-    <t> NER, a genus of insects that represents which time zone a location in the west belongs to</t>
-  </si>
-  <si>
-    <t> Where does the source of the NER name belong?</t>
-  </si>
-  <si>
-    <t> What is the division of people, things, and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> what is the name of the mother of a person or thing with the same name as NER, a ship</t>
-  </si>
-  <si>
-    <t>Who is the predecessor of the previous generation where NER was held?</t>
-  </si>
-  <si>
-    <t> NER's location What time zone does the location in the northeast belong to?</t>
-  </si>
-  <si>
-    <t> NER, a season for a football team, what are the titles of location leaders in its location Northwest</t>
-  </si>
-  <si>
-    <t> and NER, an Arleigh Burke-class guided-missile destroyer, what is the war in which a person or thing with the same name participated</t>
-  </si>
-  <si>
-    <t> What is the famous work of the person named NER?</t>
-  </si>
-  <si>
-    <t> What is the area of a mountain range in Utah County, Utah, USA, where the location northeast of the city NER is located.</t>
-  </si>
-  <si>
-    <t> What is the name of the leader of the eastern location of a sports game NER?</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, what is the region of the location northwest of the city where it belongs</t>
-  </si>
-  <si>
-    <t> Which party does NER's namesake belong to?</t>
-  </si>
-  <si>
-    <t> Who founded the record company NER belongs to?</t>
-  </si>
-  <si>
-    <t> Who is the successor of NER's namesake?</t>
-  </si>
-  <si>
-    <t> What is the reason for the person, thing, and thing with the same name as Bakuden Porcelain NER?</t>
-  </si>
-  <si>
-    <t> Who rented the venue of the NER club</t>
-  </si>
-  <si>
-    <t> Where did the person or thing with the same name as NER die?</t>
-  </si>
-  <si>
-    <t>NER, Wikimedia listing article, where is the birth city of the captain of his club location</t>
-  </si>
-  <si>
-    <t> What is the language of the lyricist of the title of NER</t>
-  </si>
-  <si>
-    <t> what is the alma mater of the person whose name is used to name NER</t>
-  </si>
-  <si>
-    <t> NER, a municipality in Catalonia, what is the division of the area to the northwest of it</t>
-  </si>
-  <si>
-    <t> The name of the venue leader in the east of the football match NER is</t>
-  </si>
-  <si>
-    <t> 1915 events of the same name on the Royal Navy's Queen Elizabeth-class battleship NER</t>
-  </si>
-  <si>
-    <t> and NER, a historic French vessel, who has been influenced by the person or thing with the same name</t>
-  </si>
-  <si>
-    <t> what is the deputy of the title of NER's successor called</t>
-  </si>
-  <si>
-    <t> What language did the previous generation of NER's lyricists speak in?</t>
-  </si>
-  <si>
-    <t> What products do NER's sponsors have</t>
-  </si>
-  <si>
-    <t> What party did the predecessors of the previous generation of the French statesman (1907-2000) NER belong to</t>
-  </si>
-  <si>
-    <t> What religion do NER's parents belong to?</t>
-  </si>
-  <si>
-    <t> NER, a French "Chakar" class battleship, what classification does the same name belong to?</t>
-  </si>
-  <si>
-    <t>NER, the New York Knicks season in '70, the venue for one season of the National Basketball Association team, the New York Knicks, which division does the location in the northeast belong to?</t>
-  </si>
-  <si>
-    <t> Whose name is NER's predecessor?</t>
-  </si>
-  <si>
-    <t> NER, the tenant of the football team's successor for a season, its venue</t>
-  </si>
-  <si>
-    <t> Who is the descendant of the person, thing, thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What are the famous works of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What is the name of the alma mater of the leader of NER?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the place in the northwest of NER, a municipality in Spain</t>
-  </si>
-  <si>
-    <t> what is the title of the leader of NER</t>
-  </si>
-  <si>
-    <t> where is the birthplace of the person named NER</t>
-  </si>
-  <si>
-    <t> NER, the season of a football team, which country its position represents</t>
-  </si>
-  <si>
-    <t> In which area is the northwest location of NER, a village in the province of Girona, Catalonia, Spain</t>
-  </si>
-  <si>
-    <t> What are the titles of NER's generals?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the north of NER's home field during the American college basketball season?</t>
-  </si>
-  <si>
-    <t> What time zone does the province of NER belong to?</t>
-  </si>
-  <si>
-    <t> What is the occupation of the singer who participated in Jolin Tsai's 2006 song NER</t>
-  </si>
-  <si>
-    <t>where is the place where the person or thing with the same name as NER died</t>
-  </si>
-  <si>
-    <t> In NER, a small town in baix Llobregat, Catalonia, Spain, what is the zoning of the place to the northwest of it</t>
-  </si>
-  <si>
-    <t> what is the northwest where the national team of the ukrainian football player NER is hosted</t>
-  </si>
-  <si>
-    <t> Who created the products or works related to NER</t>
-  </si>
-  <si>
-    <t> Which religion does the country that uses NER, a language of the ancient Korean Baekje Kingdom, follow?</t>
-  </si>
-  <si>
-    <t> Which general leads NER-related events</t>
-  </si>
-  <si>
-    <t> NER, the American college basketball season, which division is the southern part of its home field?</t>
-  </si>
-  <si>
-    <t> Who is the owner of the successor of NER's venue?</t>
-  </si>
-  <si>
-    <t> What is the province of NER's alma mater?</t>
-  </si>
-  <si>
-    <t> NER's events speak the common language</t>
-  </si>
-  <si>
-    <t> What is the division of people or things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What war did NER's namesake take part in?</t>
-  </si>
-  <si>
-    <t> Japanese nobleman (1536-1612) who was the successor of NER's father</t>
-  </si>
-  <si>
-    <t> where is the iconic location of the same name of NER</t>
-  </si>
-  <si>
-    <t> What are the sponsors of the car race NER in Daytona, USA?</t>
-  </si>
-  <si>
-    <t> Who is the descendant of NER?</t>
-  </si>
-  <si>
-    <t>Where is the location in the east of the NER and which region is the location in the northwest?</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia list article, what is the region of the location east of the city where it belongs</t>
-  </si>
-  <si>
-    <t> What is the level of people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> Which party does the parliament hold for the seat held by NER belong to?</t>
-  </si>
-  <si>
-    <t> What type of creators are NER</t>
-  </si>
-  <si>
-    <t> where NER's election winner takes office</t>
-  </si>
-  <si>
-    <t> where is the mayor of NER</t>
-  </si>
-  <si>
-    <t> Which division does the administrative center of the birthplace of NER belong to?</t>
-  </si>
-  <si>
-    <t> NER's location What area is the northern location in?</t>
-  </si>
-  <si>
-    <t> Who are the producers of products related to the smartphone model NER</t>
-  </si>
-  <si>
-    <t> What war did the first person with the title of NER fight in?</t>
-  </si>
-  <si>
-    <t> What are the iconic places for people, things and things with the same name as NER?</t>
-  </si>
-  <si>
-    <t> Wikimedia lists the location of the article NER Which division does the location in the southwest belong to</t>
-  </si>
-  <si>
-    <t> where is the state of the NER election winner</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the northwest of the city where NER is located?</t>
-  </si>
-  <si>
-    <t> NER's location What division does the location in the west belong to?</t>
-  </si>
-  <si>
-    <t> What are the offspring of NER's parents</t>
-  </si>
-  <si>
-    <t> Where is the southern region of NER?</t>
-  </si>
-  <si>
-    <t>NER, British politician (born 1967), what party is its leader</t>
-  </si>
-  <si>
-    <t> where is the place where the person whose name was used to name the NER died</t>
-  </si>
-  <si>
-    <t> NER, the season of a football team, where is the city of the operator of its venue</t>
-  </si>
-  <si>
-    <t> What is the administrative district of the person, thing, and thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What instruments did the creators of NER use</t>
-  </si>
-  <si>
-    <t> What area does the administrative center of the birthplace of NER belong to?</t>
-  </si>
-  <si>
-    <t> What is the religion of the people, things, things that have the same name as NER, a French destroyer</t>
-  </si>
-  <si>
-    <t> What are the related products (works) of NER related to</t>
-  </si>
-  <si>
-    <t> What does a lyricist with the title of NER do?</t>
-  </si>
-  <si>
-    <t> Which manager leads the tenants of NER's venue</t>
-  </si>
-  <si>
-    <t> Which division does the location in the northwest of NER's home ground belong to?</t>
-  </si>
-  <si>
-    <t> to whom the person or thing with the same name as NER owes allegiance</t>
-  </si>
-  <si>
-    <t> NER, a season of a football team, where is the city of the operator of its venue</t>
-  </si>
-  <si>
-    <t> Who was influenced by the person whose name was used to name NER?</t>
-  </si>
-  <si>
-    <t> What occupation is the source of the NER name?</t>
-  </si>
-  <si>
-    <t> NER's location What area is the northern city in?</t>
-  </si>
-  <si>
-    <t>Where do NER candidates' predecessors take office?</t>
-  </si>
-  <si>
-    <t> NER, a 2nd century Roman senator, consul and governor, where did his predecessor of the previous generation die</t>
-  </si>
-  <si>
-    <t> What time zone is used for the location in the south of the city where the Wikimedia list article NER is located</t>
-  </si>
-  <si>
-    <t> NER, British politician (born 1943), what is the predecessor of the current incumbent of his title</t>
-  </si>
-  <si>
-    <t> What are the regions of NER-related events in isolated human groups</t>
-  </si>
-  <si>
-    <t> Who is the successor of the previous generation of the successor of NER?</t>
-  </si>
-  <si>
-    <t> NER, a season of football, where is the address of the tenant of its venue</t>
-  </si>
-  <si>
-    <t> What descendants did the father of the Empress of Japan (680-748) NER have</t>
-  </si>
-  <si>
-    <t> What zip code is the same name for NER?</t>
-  </si>
-  <si>
-    <t> What type of school is NER's alma mater?</t>
-  </si>
-  <si>
-    <t> What is the time zone of the southern city of NER</t>
-  </si>
-  <si>
-    <t> What language do singers who perform for NER use</t>
-  </si>
-  <si>
-    <t> What is the famous work of the person named NER?</t>
-  </si>
-  <si>
-    <t> Where is the place where the person, thing, and thing with the same name as the schooner and the Spanish training ship NER died?</t>
-  </si>
-  <si>
-    <t> What is the largest city with people, things and things that have the same name as NER?</t>
-  </si>
-  <si>
-    <t> Who is NER's father's successor?</t>
-  </si>
-  <si>
-    <t>Who is the first predecessor of the title of NER?</t>
-  </si>
-  <si>
-    <t> What region does NER's province belong to in the country?</t>
-  </si>
-  <si>
-    <t> Who is the tenant of the successor of NER's venue?</t>
-  </si>
-  <si>
-    <t> What event determined the establishment of the venue for the NER national team</t>
-  </si>
-  <si>
-    <t> What is the war in which people, things, and things with the same name as NER participated?</t>
-  </si>
-  <si>
-    <t> where is the person who was used to name the lake ner on titan</t>
-  </si>
-  <si>
-    <t> Who is the father of the person, thing, thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> A town in Sampitt County, Utah, USA, what is the area of NER, the location in the south, and the location in the northwest?</t>
-  </si>
-  <si>
-    <t> What is the iconic location of NER's namesake</t>
-  </si>
-  <si>
-    <t> What does NER related things have to do with</t>
-  </si>
-  <si>
-    <t> Who is the operator of NER's famous work?</t>
-  </si>
-  <si>
-    <t> What is the area of the location south of NER?</t>
-  </si>
-  <si>
-    <t> What time zone does the person or thing with the same name as NER belong to</t>
-  </si>
-  <si>
-    <t> Who is the candidate for the title of NER now?</t>
-  </si>
-  <si>
-    <t> Who is the successor played by the Hong Kong politician NER?</t>
-  </si>
-  <si>
-    <t> What are the descendants of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> What country was the captain of the NER club location born in?</t>
-  </si>
-  <si>
-    <t> In which area is the southern location of the NER held?</t>
-  </si>
-  <si>
-    <t>What is a related product (work) related to NER</t>
-  </si>
-  <si>
-    <t> What is the party of the person, thing, and thing with the same name as the gear-class destroyer NER?</t>
-  </si>
-  <si>
-    <t> What time zone is used in the southern cities of NER</t>
-  </si>
-  <si>
-    <t> What titles do NER's candidate successors hold?</t>
-  </si>
-  <si>
-    <t> Who are the descendants of NER-related events?</t>
-  </si>
-  <si>
-    <t> Who is the successor of the successor of the place where NER is held?</t>
-  </si>
-  <si>
-    <t> Wikimedia listing article Which team does the captain of the NER club location play for?</t>
-  </si>
-  <si>
-    <t> What is the fame of the person whose name was used to name NER?</t>
-  </si>
-  <si>
-    <t> Who is the successor of the person or thing related to the result of NER</t>
-  </si>
-  <si>
-    <t> What war did the person or thing with the same name as NER participate in?</t>
-  </si>
-  <si>
-    <t> Which division does a person, thing, or thing with the same name as NER belong to?</t>
-  </si>
-  <si>
-    <t> What is the predecessor of NER's election winner?</t>
-  </si>
-  <si>
-    <t> NER, U.S. citizen residing outside the U.S., to which party the legislature of the region to which they belong</t>
-  </si>
-  <si>
-    <t> NER, Anwar, who is the successor to the 2006 election winner</t>
-  </si>
-  <si>
-    <t> Which division does the administrative center of NER's location belong to?</t>
-  </si>
-  <si>
-    <t> Where is NER's Northwest location based?</t>
-  </si>
-  <si>
-    <t> town in Box Elder County, Utah, U.S.A., the location in the east of NER, the location in the south, and which division does the location belong to?</t>
-  </si>
-  <si>
-    <t> what is the alma mater of NER's election winner</t>
-  </si>
-  <si>
-    <t> What is the origin of NER's namesake</t>
-  </si>
-  <si>
-    <t> Who is the chairman of the tenant of NER's venue</t>
-  </si>
-  <si>
-    <t> What titles do Wallner's election winners hold?</t>
-  </si>
-  <si>
-    <t> NER, a Bergwalker in Botswana, where is the capital of its province</t>
-  </si>
-  <si>
-    <t> What does the namesake of NER have to do with</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the southeast of NER, a town in Millard County, Utah, USA?</t>
-  </si>
-  <si>
-    <t> Where did the voters for the NER's election winner come from?</t>
-  </si>
-  <si>
-    <t> Who is the successor of the person or thing related to the result of the battle NER?</t>
-  </si>
-  <si>
-    <t> what is the title of the consort of the ruler of NER</t>
-  </si>
-  <si>
-    <t> Who are the leaders of NER</t>
-  </si>
-  <si>
-    <t> What titles do NER's election winners hold?</t>
-  </si>
-  <si>
-    <t> What party is the legislature of NER's nationality?</t>
-  </si>
-  <si>
-    <t> NER, a Phileasx, who is the author of its themes</t>
-  </si>
-  <si>
-    <t> Which division does the location in the west of where NER died belong?</t>
-  </si>
-  <si>
-    <t> Which religion do the leaders of NER believe in?</t>
-  </si>
-  <si>
-    <t>Who leads the legislature of the region to which the NER belongs in the Highland Region of the South Central United States?</t>
-  </si>
-  <si>
-    <t> where is the person or thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> Who is the mother of the next generation of the consort of the queen of ancient Egypt NER's consort?</t>
-  </si>
-  <si>
-    <t> where is the birthplace of NER's election winner</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, what is the national team the captain of its club location belongs to</t>
-  </si>
-  <si>
-    <t> NER, the American college basketball season, whose home legislature is led</t>
-  </si>
-  <si>
-    <t> Which dynasty does NER's father belong to?</t>
-  </si>
-  <si>
-    <t> Where was the birthplace of the founder of the team of Finnish racing driver NER</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia list article, what is the zoning of the location in the southern part of the autonomous region</t>
-  </si>
-  <si>
-    <t> What is the area of the place in the northwest of NER</t>
-  </si>
-  <si>
-    <t> What is the classification level of the same name for NER</t>
-  </si>
-  <si>
-    <t> What area is the NER's home east?</t>
-  </si>
-  <si>
-    <t> What are the descendants of NER's generals?</t>
-  </si>
-  <si>
-    <t> What is the time zone of the same name of the US Navy Schiphol van der NER</t>
-  </si>
-  <si>
-    <t> In which state is the election winner for Wallner?</t>
-  </si>
-  <si>
-    <t> who is the prime minister of the leader of NER</t>
-  </si>
-  <si>
-    <t> What is the title of the descendant of the ruler of NER</t>
-  </si>
-  <si>
-    <t>Which club does the captain of NER's successor belong to now?</t>
-  </si>
-  <si>
-    <t> Which region is the event involved in NER?</t>
-  </si>
-  <si>
-    <t> What is the label of the country using NER</t>
-  </si>
-  <si>
-    <t> Who is the king of NER's election winner</t>
-  </si>
-  <si>
-    <t> Who are the teams participating in the important competitions that NER participates in in a season of the football team?</t>
-  </si>
-  <si>
-    <t> What is the classification level of people, things, and things with the same name as the Dratch-class armored frigate NER?</t>
-  </si>
-  <si>
-    <t> What is the job title of NER's birth country leader?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the south of the city where the Wikimedia list article NER is located</t>
-  </si>
-  <si>
-    <t> NER, a sports season, where is the address of its teams</t>
-  </si>
-  <si>
-    <t> Where does the location of the northeastern part of the Catholic bishop NER die belong to which division?</t>
-  </si>
-  <si>
-    <t> NER, a season for a football team, what the operator of its venue is named for</t>
-  </si>
-  <si>
-    <t> What is the flag event established in the country where NER is located, a civil building in Belfast, Northern Ireland</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, what team is the captain of its club location</t>
-  </si>
-  <si>
-    <t> NER, a football team's season, its location, what are the titles of location leaders in the Northwest</t>
-  </si>
-  <si>
-    <t>What is the occupation of the lyricist of the title of NER?</t>
-  </si>
-  <si>
-    <t> Which dynasty did the descendants of NER belong to?</t>
-  </si>
-  <si>
-    <t> Which division does the person or thing with the same name as NER belong to?</t>
-  </si>
-  <si>
-    <t> NER, this is a song sung by Carlos Santana, it is what instrument the creator used</t>
-  </si>
-  <si>
-    <t> What is the time zone of the region south of NER, a village in the province of Barcelona and Catalonia, Spain</t>
-  </si>
-  <si>
-    <t> Who is the president of NER's alma mater</t>
-  </si>
-  <si>
-    <t> Who is NER's father's spouse</t>
-  </si>
-  <si>
-    <t> What is the zoning of the largest city in NER, a federal state in Brazil</t>
-  </si>
-  <si>
-    <t> Where is the provincial capital of the same name of NER?</t>
-  </si>
-  <si>
-    <t> Where does the title of the American statesman NER from Alabama belong to what time zone</t>
-  </si>
-  <si>
-    <t> Who are the teams participating in the important events that NER participates in?</t>
-  </si>
-  <si>
-    <t> What party is the NER's election winner?</t>
-  </si>
-  <si>
-    <t> What titles do children of NER have?</t>
-  </si>
-  <si>
-    <t> NER, the season of a football team, in which league the operator of its venue plays</t>
-  </si>
-  <si>
-    <t> What is the nationality of the origin of the NER name?</t>
-  </si>
-  <si>
-    <t> In which city is NER's alma mater?</t>
-  </si>
-  <si>
-    <t> What time zone is the location in the southeast of where the NER takes place?</t>
-  </si>
-  <si>
-    <t>With NER, a ship, what classification class does it have the same name people, things, things belong to</t>
-  </si>
-  <si>
-    <t> What is the zoning of the location in the northeast of NER?</t>
-  </si>
-  <si>
-    <t> NER, WWE's 2012 Night of Champions pay-per-view, who is its sponsor starring</t>
-  </si>
-  <si>
-    <t> Who is the leader of NER's successor?</t>
-  </si>
-  <si>
-    <t> In a French state (as of March 2015) which district is the main town of NER</t>
-  </si>
-  <si>
-    <t> Where is the location in the southeast of NER and in which region is the location in the southwest?</t>
-  </si>
-  <si>
-    <t> Wikimedia lists the location of the article NER What region does the location in the east belong to?</t>
-  </si>
-  <si>
-    <t> NER, an intercollegiate basketball season, what is the division of its home field?</t>
-  </si>
-  <si>
-    <t> NER, the American college basketball season, what is the region of its home west location</t>
-  </si>
-  <si>
-    <t> What offspring did the mother of the consort of King NER of Egypt have?</t>
-  </si>
-  <si>
-    <t> What's the deal with NER's sponsors?</t>
-  </si>
-  <si>
-    <t> What is the award for the election winner of Minnesota's Election NER?</t>
-  </si>
-  <si>
-    <t> What is the national team of the captain of the NER club location?</t>
-  </si>
-  <si>
-    <t> What is the religion of the administrative area that NER is responsible for?</t>
-  </si>
-  <si>
-    <t> What is the religion of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t>With which countries the people, things and things with the same name in NER participated in the war</t>
-  </si>
-  <si>
-    <t> In which region the person whose name is used to name the NER is</t>
-  </si>
-  <si>
-    <t> NER, a municipality in Spain, to which time zone does the southern region belong</t>
-  </si>
-  <si>
-    <t> Who is the mother of the previous generation of the descendants of NER?</t>
-  </si>
-  <si>
-    <t> What is the predecessor of the person or thing with the same name as NER?</t>
-  </si>
-  <si>
-    <t> Jolin Tsai's 2006 song NER song, what is the occupation of the singer</t>
-  </si>
-  <si>
-    <t> NER, Tommy Flanagan's album, what is the occupation of its creator</t>
-  </si>
-  <si>
-    <t> Which division does the location in the southwest of NER's city belong to?</t>
-  </si>
-  <si>
-    <t> What is the previous generation of the operator of NER's successor</t>
-  </si>
-  <si>
-    <t> Where does the title of NER's predecessor belong?</t>
-  </si>
-  <si>
-    <t> Who is the successor of NER's namesake?</t>
-  </si>
-  <si>
-    <t> What is the title of the location leader in the south of the location of NER?</t>
-  </si>
-  <si>
-    <t> What is the region of the same name of NER?</t>
-  </si>
-  <si>
-    <t> What is the zoning of the southern region of NER, a municipality in Catalonia, Spain</t>
-  </si>
-  <si>
-    <t> where is the provincial capital of a person or thing with the same name as NER</t>
-  </si>
-  <si>
-    <t> NER, a state in France, where are its main towns located</t>
-  </si>
-  <si>
-    <t> Who is the predecessor of the leader of NER?</t>
-  </si>
-  <si>
-    <t>Who is the last person to run the NER position for the American college football team?</t>
-  </si>
-  <si>
-    <t> What are the things related to NER related things</t>
-  </si>
-  <si>
-    <t> what is NER's title of the same name</t>
-  </si>
-  <si>
-    <t> NER, Wikimedia listing article, to which club the captain of its club location now belongs</t>
-  </si>
-  <si>
-    <t> What dynasty did NER's father belong to?</t>
-  </si>
-  <si>
-    <t> NER, a Chinese politician (1886-1975) who was the chairman he played</t>
-  </si>
-  <si>
-    <t> What is the legislature for the position of NER's national team?</t>
-  </si>
-  <si>
-    <t> What was the name of the institution before the participating countries of the war NER?</t>
   </si>
 </sst>
 </file>
@@ -1829,267 +1829,267 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2159,117 +2159,117 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -2289,177 +2289,177 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:1">
@@ -2489,42 +2489,42 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -2559,437 +2559,437 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:1">
@@ -3009,62 +3009,62 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" spans="1:1">
@@ -3094,337 +3094,337 @@
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>29</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
     </row>
     <row r="355" spans="1:1">
@@ -3434,717 +3434,717 @@
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>353</v>
+        <v>208</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>208</v>
+        <v>350</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>116</v>
+        <v>357</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>121</v>
+        <v>361</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>384</v>
+        <v>48</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>389</v>
+        <v>153</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>49</v>
+        <v>382</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>182</v>
+        <v>383</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>400</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>201</v>
+        <v>396</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>404</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>2</v>
+        <v>397</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>406</v>
+        <v>48</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>5</v>
+        <v>406</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>156</v>
+        <v>407</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>27</v>
+        <v>408</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>114</v>
+        <v>413</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
     </row>
     <row r="499" spans="1:1">
